--- a/WebRoot/WEB-INF/tpls/T030Daily.xlsx
+++ b/WebRoot/WEB-INF/tpls/T030Daily.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptero/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrie/Documents/Workspaces/MyEclipse/EleFirst/WebRoot/WEB-INF/tpls/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="440" windowWidth="24700" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,16 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>分段电量日报表</t>
-  </si>
-  <si>
-    <t>时间:2017-07-01至2017-07-03</t>
-  </si>
-  <si>
-    <t>单位:kWh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>监测点</t>
   </si>
@@ -55,13 +49,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -72,9 +59,16 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,21 +117,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,57 +403,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="C3:G4"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>